--- a/data/trans_dic/P23_4_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_4_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede</t>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,33%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,49</t>
+          <t>0,0; 11,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,87; 16,45</t>
+          <t>1,27; 17,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 14,5</t>
+          <t>1,57; 17,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 10,87</t>
+          <t>0,0; 7,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,72</t>
+          <t>3,13; 19,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,57</t>
+          <t>0,0; 11,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,32</t>
+          <t>1,76; 14,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,05</t>
+          <t>6,09; 26,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 8,66</t>
+          <t>2,61; 12,01</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1,64; 11,0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 13,43</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,6; 16,5</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 6,31</t>
+          <t>1,38; 8,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 12,29</t>
+          <t>2,12; 9,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 15,02</t>
+          <t>0,47; 5,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,85</t>
+          <t>1,08; 7,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,49</t>
+          <t>4,15; 12,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,16</t>
+          <t>1,06; 6,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,42</t>
+          <t>1,68; 7,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,91</t>
+          <t>3,08; 10,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 10,75</t>
+          <t>3,49; 8,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 6,53</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 5,2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 7,49</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,7%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,96%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,44</t>
+          <t>0,6; 5,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>0,0; 3,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,39</t>
+          <t>0,66; 6,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 6,71</t>
+          <t>4,57; 18,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,33</t>
+          <t>1,15; 6,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,76</t>
+          <t>0,54; 5,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 6,31</t>
+          <t>1,13; 7,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,71</t>
+          <t>2,33; 8,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,89</t>
+          <t>1,24; 4,98</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 3,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 5,56</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 11,91</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 10,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 5,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,55; 5,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 6,41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 5,37</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,73; 8,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 8,87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 4,77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,67; 6,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 10,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,3; 6,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,97; 4,56</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 5,07</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,48; 8,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que cuenta con menos o muchas menos personas de las que desea que se preocupan de lo que le sucede (tasa de respuesta: 99,78%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6709</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8318</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2363</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12349</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3883</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7788</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29986</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16818</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10591</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16105</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>32349</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14817</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1344; 18575</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1790; 20042</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13410</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4454; 27923</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13707</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2121; 17101</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12821; 56808</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7095; 32597</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3618; 24296</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6683; 31482</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>13984; 64050</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>17214</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18008</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7409</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16651</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34643</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11202</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15710</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30435</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51857</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>29210</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>23119</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>47086</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>5908; 36596</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7978; 35296</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1843; 21156</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5493; 37674</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>19255; 56755</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4010; 22930</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6309; 28117</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15252; 51175</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>31179; 76845</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16861; 49337</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11555; 39727</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27923; 75027</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6681</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5917</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>34130</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13843</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8186</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11943</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19055</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20524</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>10092</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>17860</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53184</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1997; 18794</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 9582</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1809; 17011</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>16131; 65165</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4915; 29238</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1844; 20661</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3711; 23667</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9305; 35245</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9433; 37894</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3628; 22428</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>9330; 33497</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>32447; 89692</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>28364</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>26622</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21644</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>53144</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>60835</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>23271</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>35440</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>79476</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>89200</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>49893</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>57085</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>132620</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13786; 46643</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13496; 49007</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10825; 41794</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>28376; 89876</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>42041; 91793</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12307; 40026</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>21956; 53201</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>53254; 114783</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>63494; 121631</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31514; 73066</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38761; 81243</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>96034; 189822</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
